--- a/presentation/evavalues/zusammen.xlsx
+++ b/presentation/evavalues/zusammen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DD1D7-CC16-488F-9562-1FB8F035219B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465BB94-D695-4355-9B9F-EDB40873CD21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Overall Quality</t>
   </si>
   <si>
-    <t>avg</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -116,7 +113,10 @@
     <t>Gruppe 6</t>
   </si>
   <si>
-    <t>group 5</t>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Group 5</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9C1C1C"/>
       <color rgb="FF9DC3E6"/>
-      <color rgb="FF9C1C1C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1154,7 +1154,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1228,7 +1228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1521,6 +1521,433 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'avg evas'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9C1C1C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'avg evas'!$A$3:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Grammaticality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-Redundancy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Referential Clarity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Focus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Structure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Coherence</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Readability</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Information Content</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Spelling</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Length</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Overall Quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'avg evas'!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.1216931216931201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8571428571428599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1111111111111098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6560846560846598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1375661375661399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2010582010582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5291005291005302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.45502645502645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.35449735449735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3703703703703698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.28042328042328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97BC-486F-B7CC-3C28A4567EE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'avg evas'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'avg evas'!$A$3:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Grammaticality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-Redundancy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Referential Clarity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Focus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Structure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Coherence</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Readability</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Information Content</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Spelling</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Length</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Overall Quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'avg evas'!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0825885699431348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.056343025326492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6622026971690183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4217743473101718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1057514665597958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1041895495355378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5422662196391519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4248240340095819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3273229990621278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6242231912470744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.21236695535532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97BC-486F-B7CC-3C28A4567EE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="776234816"/>
+        <c:axId val="770084384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="776234816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770084384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="770084384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776234816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1533,7 +1960,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1649,7 +2076,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>group 5</c:v>
+                  <c:v>Group 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1796,7 +2223,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1809,8 +2236,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>criteria</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Criteria</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1828,7 +2255,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1918,7 +2345,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1931,8 +2358,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>score</a:t>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1950,7 +2377,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2026,7 +2453,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2201,6 +2628,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3212,6 +3679,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3772,16 +4742,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285753</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109531</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523878</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>340878</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>187991</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>245628</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149891</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3810,16 +4780,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276223</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>52379</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>569473</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>130839</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CA5B58-C47B-4558-A03E-05ED590CF698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1181098</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378973</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3840,7 +4846,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4890,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA929B4-7E6C-4B8F-9C40-C2F4062EA517}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,14 +5918,14 @@
         <v>1</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="18"/>
       <c r="M1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -4928,52 +5934,52 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/presentation/evavalues/zusammen.xlsx
+++ b/presentation/evavalues/zusammen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465BB94-D695-4355-9B9F-EDB40873CD21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D192C43-47E1-45E8-8173-C6782E97CF8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>topic</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Grammaticality</t>
   </si>
   <si>
-    <t>Non-Redundancy</t>
-  </si>
-  <si>
-    <t>Referential Clarity</t>
-  </si>
-  <si>
     <t>Focus</t>
   </si>
   <si>
@@ -80,16 +74,10 @@
     <t>Readability</t>
   </si>
   <si>
-    <t>Information Content</t>
-  </si>
-  <si>
     <t>Spelling</t>
   </si>
   <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>Overall Quality</t>
   </si>
   <si>
     <t>weight</t>
@@ -118,14 +106,70 @@
   <si>
     <t>Group 5</t>
   </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>OQ</t>
+  </si>
+  <si>
+    <t>Non
+Redundancy</t>
+  </si>
+  <si>
+    <t>Referential
+Clarity</t>
+  </si>
+  <si>
+    <t>Information
+Content</t>
+  </si>
+  <si>
+    <t>Overall
+Quality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -374,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,6 +474,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -438,6 +486,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA500"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF9C1C1C"/>
       <color rgb="FF9DC3E6"/>
     </mruColors>
@@ -1253,10 +1303,12 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non-Redundancy</c:v>
+                  <c:v>Non
+Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Referential Clarity</c:v>
+                  <c:v>Referential
+Clarity</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Focus</c:v>
@@ -1271,7 +1323,8 @@
                   <c:v>Readability</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Information Content</c:v>
+                  <c:v>Information
+Content</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Spelling</c:v>
@@ -1280,7 +1333,8 @@
                   <c:v>Length</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Overall Quality</c:v>
+                  <c:v>Overall
+Quality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1558,10 +1612,12 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non-Redundancy</c:v>
+                  <c:v>Non
+Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Referential Clarity</c:v>
+                  <c:v>Referential
+Clarity</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Focus</c:v>
@@ -1576,7 +1632,8 @@
                   <c:v>Readability</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Information Content</c:v>
+                  <c:v>Information
+Content</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Spelling</c:v>
@@ -1585,7 +1642,8 @@
                   <c:v>Length</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Overall Quality</c:v>
+                  <c:v>Overall
+Quality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1679,10 +1737,12 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non-Redundancy</c:v>
+                  <c:v>Non
+Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Referential Clarity</c:v>
+                  <c:v>Referential
+Clarity</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Focus</c:v>
@@ -1697,7 +1757,8 @@
                   <c:v>Readability</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Information Content</c:v>
+                  <c:v>Information
+Content</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Spelling</c:v>
@@ -1706,7 +1767,8 @@
                   <c:v>Length</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Overall Quality</c:v>
+                  <c:v>Overall
+Quality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1945,6 +2007,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Scores per Criteria</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1968,7 +2086,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9DC3E6"/>
+                <a:srgbClr val="FFA500"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1986,10 +2104,12 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non-Redundancy</c:v>
+                  <c:v>Non
+Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Referential Clarity</c:v>
+                  <c:v>Referential
+Clarity</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Focus</c:v>
@@ -2004,7 +2124,8 @@
                   <c:v>Readability</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Information Content</c:v>
+                  <c:v>Information
+Content</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Spelling</c:v>
@@ -2013,7 +2134,8 @@
                   <c:v>Length</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Overall Quality</c:v>
+                  <c:v>Overall
+Quality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2084,7 +2206,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2102,10 +2224,12 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non-Redundancy</c:v>
+                  <c:v>Non
+Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Referential Clarity</c:v>
+                  <c:v>Referential
+Clarity</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Focus</c:v>
@@ -2120,7 +2244,8 @@
                   <c:v>Readability</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Information Content</c:v>
+                  <c:v>Information
+Content</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Spelling</c:v>
@@ -2129,7 +2254,8 @@
                   <c:v>Length</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Overall Quality</c:v>
+                  <c:v>Overall
+Quality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2289,7 +2415,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2485,7 +2611,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2502,8 +2630,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4742,16 +4870,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523878</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71431</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38969</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>175340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>245628</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>149891</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>280265</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>63300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4781,15 +4909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>1093644</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>97414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178950</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>53287</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>282860</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>174514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4816,16 +4944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1181098</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23804</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38136</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>378973</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>102264</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105636</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4837,7 +4965,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5894,10 +6022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA929B4-7E6C-4B8F-9C40-C2F4062EA517}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,14 +6046,14 @@
         <v>1</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="18"/>
       <c r="M1" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -5934,52 +6062,52 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -6036,9 +6164,9 @@
         <v>4.1737089201877904</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="4">
         <v>3.8881987577639801</v>
@@ -6090,9 +6218,9 @@
         <v>4.1502347417840397</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>3.39130434782609</v>
@@ -6146,7 +6274,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>3.09937888198758</v>
@@ -6200,7 +6328,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>2.8944099378882</v>
@@ -6254,7 +6382,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4">
         <v>2.8633540372670798</v>
@@ -6308,7 +6436,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
         <v>3.2360248447204998</v>
@@ -6360,9 +6488,9 @@
         <v>4.3051643192488296</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="4">
         <v>2.9689440993788798</v>
@@ -6416,7 +6544,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>4.0931677018633499</v>
@@ -6470,7 +6598,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <v>3.3043478260869601</v>
@@ -6522,9 +6650,9 @@
         <v>3.7934272300469498</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>2.8260869565217401</v>
@@ -6574,6 +6702,64 @@
       </c>
       <c r="Q13" s="6">
         <v>4.1784037558685503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6595,6 +6781,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/presentation/evavalues/zusammen.xlsx
+++ b/presentation/evavalues/zusammen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D192C43-47E1-45E8-8173-C6782E97CF8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD2E82-68EF-41AF-85B6-A174AE9EC8D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,6 +459,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,10 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2363,7 +2363,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Criteria</a:t>
+                  <a:t>criteria</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2415,7 +2415,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2485,7 +2485,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Score</a:t>
+                  <a:t>score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6035,30 +6035,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="14" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="18"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -6165,7 +6165,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="4">
@@ -6219,7 +6219,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="4">
@@ -6489,7 +6489,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="4">
@@ -6651,7 +6651,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="4">
@@ -6705,7 +6705,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">

--- a/presentation/evavalues/zusammen.xlsx
+++ b/presentation/evavalues/zusammen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD2E82-68EF-41AF-85B6-A174AE9EC8D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE50FB6-531B-4C44-A611-DF199A824086}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,10 +140,6 @@
     <t>OQ</t>
   </si>
   <si>
-    <t>Non
-Redundancy</t>
-  </si>
-  <si>
     <t>Referential
 Clarity</t>
   </si>
@@ -154,6 +150,10 @@
   <si>
     <t>Overall
 Quality</t>
+  </si>
+  <si>
+    <t>Non-
+Redundancy</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1303,7 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non
+                  <c:v>Non-
 Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -1612,7 +1612,7 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non
+                  <c:v>Non-
 Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -1737,7 +1737,7 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non
+                  <c:v>Non-
 Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -2104,7 +2104,7 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non
+                  <c:v>Non-
 Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -2224,7 +2224,7 @@
                   <c:v>Grammaticality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Non
+                  <c:v>Non-
 Redundancy</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -6025,7 +6025,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>3.8881987577639801</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>3.39130434782609</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4">
         <v>2.9689440993788798</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>2.8260869565217401</v>
